--- a/output/fit_clients/fit_round_375.xlsx
+++ b/output/fit_clients/fit_round_375.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1637971850.978325</v>
+        <v>2254727241.996756</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09643603424277089</v>
+        <v>0.09799738168127586</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0387123651278773</v>
+        <v>0.03882660088910865</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>818985872.433599</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1617847606.238553</v>
+        <v>2429169373.520132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1734264080988156</v>
+        <v>0.1586242574233892</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04786296633850313</v>
+        <v>0.03420657007458486</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>808923784.0032253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3979774565.732696</v>
+        <v>3725916138.118143</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1343535324915315</v>
+        <v>0.118730004104377</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02325028930934248</v>
+        <v>0.02303566348725067</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>135</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1989887295.636578</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3505540805.393548</v>
+        <v>3546613451.2241</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09942819565521011</v>
+        <v>0.08539299741199147</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0333442368802749</v>
+        <v>0.03703506940851522</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>138</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1752770439.135808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2192369346.0478</v>
+        <v>2623544460.38136</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1197921390287184</v>
+        <v>0.1146701821367431</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03512627145084929</v>
+        <v>0.04212698299619413</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1096184681.810351</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1952090496.623578</v>
+        <v>2228665077.432105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08035414222682176</v>
+        <v>0.07047878807257438</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03661154777301281</v>
+        <v>0.0452217152359877</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>117</v>
-      </c>
-      <c r="J7" t="n">
-        <v>976045314.1452897</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3323343251.417734</v>
+        <v>3340945567.493839</v>
       </c>
       <c r="F8" t="n">
-        <v>0.188442896337298</v>
+        <v>0.1891666401673568</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03139178675946953</v>
+        <v>0.03016026066989991</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>119</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1661671716.291268</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1630221786.864495</v>
+        <v>1443025918.060977</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1984187216143777</v>
+        <v>0.198987760039806</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02665273593250279</v>
+        <v>0.02583889570471314</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>815110971.3535769</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3809381565.847783</v>
+        <v>5274618564.510404</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1578654077539997</v>
+        <v>0.1991132020032666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03922466156901841</v>
+        <v>0.04950887887843632</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>157</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1904690790.052805</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3259987557.434985</v>
+        <v>2721330798.828283</v>
       </c>
       <c r="F11" t="n">
-        <v>0.115278045082764</v>
+        <v>0.1578422927175235</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04047960549279073</v>
+        <v>0.03680030757236603</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>155</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1629993739.806761</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3052580348.168866</v>
+        <v>2664002613.924372</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1883957483196946</v>
+        <v>0.1995043547994988</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03337340547050928</v>
+        <v>0.03370561170523335</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>127</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1526290196.933373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5328435079.329149</v>
+        <v>4429864499.87211</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06449887446274367</v>
+        <v>0.08974189336828525</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02459828391745226</v>
+        <v>0.02478686354448872</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>126</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2664217527.128064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3260854372.630901</v>
+        <v>2964791715.346826</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1440268573322365</v>
+        <v>0.122589845307343</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03468903924668574</v>
+        <v>0.03114875551226256</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>120</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1630427201.873453</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1201367682.096027</v>
+        <v>1592410572.016686</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1014274575667851</v>
+        <v>0.09676429536773958</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04431718725466747</v>
+        <v>0.04936222477858428</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>600683858.8527651</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1751145444.347904</v>
+        <v>2754819081.692589</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0917392112578005</v>
+        <v>0.100913945258277</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05051530119885614</v>
+        <v>0.03768237360218814</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>76</v>
-      </c>
-      <c r="J16" t="n">
-        <v>875572819.9009798</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3290331645.037471</v>
+        <v>3987642292.498981</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1326715770266061</v>
+        <v>0.1698742634061758</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03627802304261514</v>
+        <v>0.03952243635545712</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>110</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1645165892.197911</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2617971134.262392</v>
+        <v>2487856013.57698</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1422377285572898</v>
+        <v>0.1616495121260892</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02298670113271603</v>
+        <v>0.03224939479001072</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>123</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1308985625.066014</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1153190102.295884</v>
+        <v>893896829.2580385</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1511733441813476</v>
+        <v>0.1506075135585246</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02727714122680667</v>
+        <v>0.01991032896848639</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>576595117.716624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1967692022.970774</v>
+        <v>2168400242.158938</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1293144101005127</v>
+        <v>0.1192552791907192</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02953677183583243</v>
+        <v>0.02071934202030098</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>983846041.2846093</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1935674325.118064</v>
+        <v>1774651960.128491</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08588063762752296</v>
+        <v>0.06461245398164205</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02965613167360083</v>
+        <v>0.03433191067408416</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>967837204.6516756</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4014751509.506841</v>
+        <v>3939684125.126957</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1222042606138184</v>
+        <v>0.1267334292851253</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04350676019972587</v>
+        <v>0.0544643611981484</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2007375755.530925</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1434457386.03069</v>
+        <v>1102150472.994527</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1359515255047666</v>
+        <v>0.1144938900689035</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04706407349220952</v>
+        <v>0.04826728134572442</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>717228690.0017084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3012205531.280961</v>
+        <v>4007101995.579096</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1137164401423869</v>
+        <v>0.1413478878421661</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03441769160480598</v>
+        <v>0.02717899197268008</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>109</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1506102800.072076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1102070112.791586</v>
+        <v>1123289514.328943</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1055044010153796</v>
+        <v>0.1027996963486172</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02557585686607887</v>
+        <v>0.01871138462947908</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>551035096.899237</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1104204500.352797</v>
+        <v>1367384882.972377</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1023533443992209</v>
+        <v>0.08197228588103034</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03215148928278898</v>
+        <v>0.02498034032104136</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>552102247.7481128</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4524547004.582611</v>
+        <v>3639128027.249196</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1307633258797577</v>
+        <v>0.09534123915302455</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0237705600591444</v>
+        <v>0.02381781706437939</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2262273486.424029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3250611860.302341</v>
+        <v>3132237040.984917</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09508159992222015</v>
+        <v>0.1061565211012313</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03524574830905947</v>
+        <v>0.04467695785153569</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>120</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1625305963.125872</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5404953665.347366</v>
+        <v>3633413204.831813</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1451237452764097</v>
+        <v>0.109648780499474</v>
       </c>
       <c r="G29" t="n">
-        <v>0.042554639748905</v>
+        <v>0.0464182167793441</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>165</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2702476752.169155</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1979075268.101773</v>
+        <v>1587194246.6376</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09574247789436913</v>
+        <v>0.126338597177146</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03318876983479318</v>
+        <v>0.03844032005679752</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>989537669.11325</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>955863543.2564461</v>
+        <v>1147080842.078739</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07567580727895266</v>
+        <v>0.08427994768085775</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04068319452240233</v>
+        <v>0.05253038818926758</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>477931780.573743</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1416988961.113405</v>
+        <v>1165805392.980101</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0933240122407349</v>
+        <v>0.1073843387520587</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02641416487842094</v>
+        <v>0.02717609735632051</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>708494531.7325335</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3011938262.209111</v>
+        <v>2247136615.908885</v>
       </c>
       <c r="F33" t="n">
-        <v>0.152494908676433</v>
+        <v>0.1512506478811018</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05966480848102895</v>
+        <v>0.04933776123321101</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>113</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1505969125.727967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1569424894.95096</v>
+        <v>1102422194.656471</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1176328443731851</v>
+        <v>0.09523921495072994</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02011198281172777</v>
+        <v>0.02276053196164109</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>784712391.9619279</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1275755064.382415</v>
+        <v>1361382829.06266</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1131756824263152</v>
+        <v>0.08479725735014058</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03140987179106767</v>
+        <v>0.03277361313444228</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>637877490.3111773</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2505106654.922378</v>
+        <v>2457496363.295301</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1092947854298571</v>
+        <v>0.1288903387995022</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02291902729006002</v>
+        <v>0.02772878055842373</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>94</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1252553349.05306</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2023909349.539499</v>
+        <v>2042213869.660105</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1049135937314223</v>
+        <v>0.07915362987204105</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03896911704122105</v>
+        <v>0.03929923818185444</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>100</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1011954705.337512</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1764296288.337713</v>
+        <v>2013211747.632489</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1141209216984578</v>
+        <v>0.102573772512734</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02896082614975714</v>
+        <v>0.03993504293532436</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>882148156.0982187</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1750056676.668004</v>
+        <v>1618641755.496708</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1306497234940117</v>
+        <v>0.1554917847987961</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02279763153328418</v>
+        <v>0.0260221983988877</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>875028370.828905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1624512465.186604</v>
+        <v>1389550580.301023</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1522780393389779</v>
+        <v>0.09860431667375477</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05017635786414845</v>
+        <v>0.05741490080895099</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>812256167.6182225</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1767908302.968028</v>
+        <v>2713801783.50734</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1341488740863511</v>
+        <v>0.1439839044497073</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03933353262510168</v>
+        <v>0.04043832539836749</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>97</v>
-      </c>
-      <c r="J41" t="n">
-        <v>883954248.4173635</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2751289527.581508</v>
+        <v>2724878430.54426</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08138626372766075</v>
+        <v>0.09928725531831563</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03734270439321478</v>
+        <v>0.03643968994993162</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1375644707.146772</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2278723743.303845</v>
+        <v>2115538537.163049</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1840437809494091</v>
+        <v>0.1251384659012021</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01910650558152905</v>
+        <v>0.01957616585408772</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>132</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1139361942.584092</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2003087076.7328</v>
+        <v>1739452912.020628</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08923909345261147</v>
+        <v>0.09909263053934635</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03527221723675947</v>
+        <v>0.02304389318790886</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1001543645.324193</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2384168294.06527</v>
+        <v>2015839313.995542</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1353294664757728</v>
+        <v>0.1528977694492153</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04596868697997887</v>
+        <v>0.04102920506251613</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1192084176.617842</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4573913055.676769</v>
+        <v>4040074945.06973</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1521662637397702</v>
+        <v>0.1083710860033063</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05224046141699437</v>
+        <v>0.05523910765795277</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>133</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2286956530.252603</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4720244451.203898</v>
+        <v>5198395175.848969</v>
       </c>
       <c r="F47" t="n">
-        <v>0.143403949092913</v>
+        <v>0.1709197603936958</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05519001004205528</v>
+        <v>0.05345345454064106</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>100</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2360122265.596918</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3563392519.348745</v>
+        <v>3737418217.947621</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08309256064124912</v>
+        <v>0.0884607501651157</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03833989258531369</v>
+        <v>0.02395517185580466</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>124</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1781696319.459191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1894557525.278975</v>
+        <v>1815090610.368977</v>
       </c>
       <c r="F49" t="n">
-        <v>0.130014535159323</v>
+        <v>0.1721205095759406</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03675703429093997</v>
+        <v>0.03373796783248634</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>947278733.3212689</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3820578989.604418</v>
+        <v>3346389107.787365</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1377245249612224</v>
+        <v>0.1767634260384324</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03694859741109958</v>
+        <v>0.04054838672527718</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>127</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1910289496.252688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1096541922.257356</v>
+        <v>1045727381.256569</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1354551000961785</v>
+        <v>0.1416942543889145</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03972873182824152</v>
+        <v>0.04304767905152795</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>548271029.4592826</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5210368929.83498</v>
+        <v>4765213231.475875</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09814475076697637</v>
+        <v>0.1380480111185574</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04310681069779516</v>
+        <v>0.04748485873649859</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>154</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2605184450.171999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3510350995.290675</v>
+        <v>3021901641.556875</v>
       </c>
       <c r="F53" t="n">
-        <v>0.148786101240044</v>
+        <v>0.1993808240688187</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0233504416187136</v>
+        <v>0.0239565355684268</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>108</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1755175494.882204</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4358958013.742205</v>
+        <v>4806579351.357098</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1516982311015476</v>
+        <v>0.1562741332156682</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04783497885883926</v>
+        <v>0.03507653507468379</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2179479099.142149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4977905880.621422</v>
+        <v>3864629573.111434</v>
       </c>
       <c r="F55" t="n">
-        <v>0.155430955033716</v>
+        <v>0.2098363759270667</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02871229360049849</v>
+        <v>0.02888549854906761</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>109</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2488952958.368908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1496385146.852787</v>
+        <v>1425876182.463578</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1086987618476451</v>
+        <v>0.09978859184870845</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04204263858442137</v>
+        <v>0.03982437395986805</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>748192616.2482966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3668324053.519681</v>
+        <v>3918391432.688424</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1813744105047016</v>
+        <v>0.1168821082249483</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02687502182876717</v>
+        <v>0.0215034807600755</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>119</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1834162087.290858</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1600559948.524249</v>
+        <v>1220185640.958233</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1415045884930584</v>
+        <v>0.1734410516244982</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02486075679365082</v>
+        <v>0.03549968234421247</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>800279996.2444755</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3567018478.188672</v>
+        <v>5189544411.445959</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1234358936523285</v>
+        <v>0.1199973843695411</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03840040166926044</v>
+        <v>0.04752402250909193</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>103</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1783509235.924459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2687364980.488003</v>
+        <v>3181806257.552166</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1437330997018685</v>
+        <v>0.1813876568897662</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03334887776952018</v>
+        <v>0.03009016951190141</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1343682527.811067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3156066244.977491</v>
+        <v>2480922649.94263</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1098611836873448</v>
+        <v>0.1709608995060662</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02262993356753741</v>
+        <v>0.02954909576910465</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>128</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1578033088.251333</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1536913234.966365</v>
+        <v>1810431436.997662</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1943058091981878</v>
+        <v>0.1804216932142529</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03872548808822385</v>
+        <v>0.03188509616785228</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>768456606.0895252</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4015261936.293838</v>
+        <v>4233776796.743373</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07812896958793621</v>
+        <v>0.1021733678865557</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03171819983899853</v>
+        <v>0.02931763114184349</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2007631029.84925</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5548957185.622886</v>
+        <v>4494235587.832476</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1381153344223633</v>
+        <v>0.1203805065370381</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03453881164335416</v>
+        <v>0.02757727925179973</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>116</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2774478737.630645</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4351028525.457955</v>
+        <v>5538138381.974731</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1593658891043461</v>
+        <v>0.1434539128712581</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02080848145047853</v>
+        <v>0.02587314211686026</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>134</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2175514260.385498</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4393509497.404747</v>
+        <v>5728204109.245714</v>
       </c>
       <c r="F66" t="n">
-        <v>0.159105725629016</v>
+        <v>0.1579038594364642</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04471360612824814</v>
+        <v>0.04357269656827747</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>110</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2196754743.350317</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3372469361.355881</v>
+        <v>3223888828.195881</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07246562393056048</v>
+        <v>0.06375452618870205</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03489308163855739</v>
+        <v>0.04762801686037357</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>120</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1686234667.448752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4722003851.527305</v>
+        <v>5715357951.79343</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1281607968389188</v>
+        <v>0.1006082700929591</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04474867876792366</v>
+        <v>0.04758169134231888</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2361001965.313833</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2325838501.209524</v>
+        <v>2359217534.20047</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1278542914113719</v>
+        <v>0.1686278179468215</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03831965797292076</v>
+        <v>0.04554586278273376</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1162919297.681529</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3203895411.934102</v>
+        <v>3256595790.168647</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09498487445618498</v>
+        <v>0.07151622173542538</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04593647382511919</v>
+        <v>0.04981430898764379</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>107</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1601947696.247894</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5641773185.285327</v>
+        <v>5593419509.915814</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1825673120577231</v>
+        <v>0.1179149107283299</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02371909575456679</v>
+        <v>0.02496283622472321</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>136</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2820886746.303729</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1730636100.265363</v>
+        <v>2077503549.359878</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09094428496146623</v>
+        <v>0.09600145906283891</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04400600125761629</v>
+        <v>0.04329033829262694</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>865318039.9488553</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2225795293.359726</v>
+        <v>2527901401.114336</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09424277122890902</v>
+        <v>0.09218868333474675</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0323640023348553</v>
+        <v>0.04111213434889177</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>142</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1112897713.571551</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3965406764.764244</v>
+        <v>2811154817.068237</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1399478193850047</v>
+        <v>0.1496150864963041</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0248303990817193</v>
+        <v>0.03438929655283738</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>127</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1982703364.342683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1968452528.666427</v>
+        <v>1676378657.094753</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1359903209058417</v>
+        <v>0.1087408393990953</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03416530680292373</v>
+        <v>0.03277113154694872</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>984226231.4555978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3738306504.328248</v>
+        <v>4101246053.685956</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08934868540227439</v>
+        <v>0.07678964448830145</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03277573449060608</v>
+        <v>0.02813794944474817</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1869153225.892364</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2195602321.198251</v>
+        <v>1832426373.193835</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1321910784503142</v>
+        <v>0.115880906020048</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02728816067417515</v>
+        <v>0.0266851538506556</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1097801251.01886</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3987045822.151744</v>
+        <v>4540469043.763455</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09068696754645909</v>
+        <v>0.08440589362559299</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0409904880240232</v>
+        <v>0.04276488089221597</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>130</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1993522877.743186</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1262923812.036715</v>
+        <v>1501152551.057892</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1338614637227858</v>
+        <v>0.1502035627044619</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03149297675564428</v>
+        <v>0.02459676395641954</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>631461898.7777133</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4319962384.323891</v>
+        <v>3885449226.312021</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07718110386660194</v>
+        <v>0.1064955653586276</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03550346409309536</v>
+        <v>0.02425681280886824</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>81</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2159981207.57183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3946194961.013094</v>
+        <v>4937265025.581868</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1151052807889705</v>
+        <v>0.1120814232349246</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02051561270282845</v>
+        <v>0.0262037903978659</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1973097441.743446</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5397821468.563695</v>
+        <v>3777277337.94436</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1911643442230716</v>
+        <v>0.1455825947808324</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0258851710066623</v>
+        <v>0.02291464163058917</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>130</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2698910696.050972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2463555644.353961</v>
+        <v>2120321050.152074</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1207232654251105</v>
+        <v>0.1554061748579352</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0303143354960732</v>
+        <v>0.0380148459218144</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1231777865.213336</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1836843909.632</v>
+        <v>1685003130.771785</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1039792274009048</v>
+        <v>0.1016196848226471</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05217702307980893</v>
+        <v>0.03270848328289151</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>918421983.7743837</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3382047864.6956</v>
+        <v>3103715573.329159</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1238213726622178</v>
+        <v>0.1571761160500525</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04732580656902045</v>
+        <v>0.05358677370095467</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>141</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1691024034.690501</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1988034773.736071</v>
+        <v>2043432902.125905</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1040946931658397</v>
+        <v>0.1068667144078664</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01755655214481459</v>
+        <v>0.02050065622247628</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>994017412.8298156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1022979076.668742</v>
+        <v>1037996519.374882</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1478977708898362</v>
+        <v>0.1588277934895629</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03100492995100662</v>
+        <v>0.03172221990744079</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>511489548.5799411</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3659344008.732101</v>
+        <v>2833196030.524634</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1231500909112</v>
+        <v>0.1573530402211401</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0259636538200477</v>
+        <v>0.02997963522617745</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>149</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1829672099.997055</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2178907882.687184</v>
+        <v>2723172659.663193</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1441782109674189</v>
+        <v>0.1558847709507391</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03226094013742107</v>
+        <v>0.03590707885535672</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>126</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1089454039.642096</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1614188430.769509</v>
+        <v>1692994200.799996</v>
       </c>
       <c r="F90" t="n">
-        <v>0.104680200221817</v>
+        <v>0.1343769857663457</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03415202316154422</v>
+        <v>0.05286420080088703</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>807094214.9984653</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1517032543.996625</v>
+        <v>1867132802.141397</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1300503003548873</v>
+        <v>0.1799312307125902</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06161509531567207</v>
+        <v>0.04407795651195485</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>758516308.6798034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2947301284.548792</v>
+        <v>1986138453.120588</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08032324413213096</v>
+        <v>0.08466998226016134</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03857335746326061</v>
+        <v>0.02973170777691838</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>105</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1473650660.072773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3124440482.300614</v>
+        <v>4131895036.290233</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1149475679470553</v>
+        <v>0.1394211139808172</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04967559648545218</v>
+        <v>0.0468242272115571</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1562220298.377431</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1714980896.226764</v>
+        <v>2378010063.397644</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1618497921243311</v>
+        <v>0.1293987442091627</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04052186891106598</v>
+        <v>0.04241251011456601</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>857490409.349668</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3094150177.98107</v>
+        <v>2117664423.147365</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1312492403756647</v>
+        <v>0.09927790711666427</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03718654346625627</v>
+        <v>0.03789206739065621</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1547075081.890522</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2165862745.403194</v>
+        <v>2388376551.006112</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1252630607527126</v>
+        <v>0.104564229119657</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03809483717813666</v>
+        <v>0.03389599155790628</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1082931341.978267</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5207623037.34624</v>
+        <v>4283539462.30582</v>
       </c>
       <c r="F97" t="n">
-        <v>0.146376618080987</v>
+        <v>0.1719873496151827</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02434588699558097</v>
+        <v>0.02503901967233844</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>120</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2603811672.183537</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3117309590.388229</v>
+        <v>2888063071.767549</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1001150905108394</v>
+        <v>0.07877108823689462</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02917803290183477</v>
+        <v>0.03142077857724995</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>99</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1558654787.84711</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2855640656.086134</v>
+        <v>3275745945.832803</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1056203242945884</v>
+        <v>0.0946756933057618</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02166634145967654</v>
+        <v>0.02926405872951331</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>118</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1427820303.552489</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3713412522.073841</v>
+        <v>4114263053.712684</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1571104651009762</v>
+        <v>0.1313571598802523</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02337801679439236</v>
+        <v>0.0214907602155252</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>115</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1856706308.830959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2590406582.928182</v>
+        <v>3489164093.501096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2207245514866394</v>
+        <v>0.1378774327404037</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03600297259971239</v>
+        <v>0.05176462760000217</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>153</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1295203326.378018</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_375.xlsx
+++ b/output/fit_clients/fit_round_375.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2254727241.996756</v>
+        <v>1628749016.637267</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09799738168127586</v>
+        <v>0.1132234628220216</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03882660088910865</v>
+        <v>0.03492336397533379</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2429169373.520132</v>
+        <v>2259138295.370795</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1586242574233892</v>
+        <v>0.1683116892140823</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03420657007458486</v>
+        <v>0.03152278142332091</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3725916138.118143</v>
+        <v>3389740311.115136</v>
       </c>
       <c r="F4" t="n">
-        <v>0.118730004104377</v>
+        <v>0.1246387715767773</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02303566348725067</v>
+        <v>0.02687122608340905</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3546613451.2241</v>
+        <v>3492115070.642205</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08539299741199147</v>
+        <v>0.08418768703871247</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03703506940851522</v>
+        <v>0.0325036307585649</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2623544460.38136</v>
+        <v>2204715206.804247</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1146701821367431</v>
+        <v>0.1319857238288429</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04212698299619413</v>
+        <v>0.05382775052570753</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2228665077.432105</v>
+        <v>1931589947.390657</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07047878807257438</v>
+        <v>0.08511773344389101</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0452217152359877</v>
+        <v>0.04170490325980181</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3340945567.493839</v>
+        <v>3618236355.089783</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1891666401673568</v>
+        <v>0.1625640336626347</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03016026066989991</v>
+        <v>0.03111805161516914</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1443025918.060977</v>
+        <v>2018675943.34195</v>
       </c>
       <c r="F9" t="n">
-        <v>0.198987760039806</v>
+        <v>0.1603370755175694</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02583889570471314</v>
+        <v>0.02340255393790182</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5274618564.510404</v>
+        <v>5170893309.110429</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1991132020032666</v>
+        <v>0.180004176867406</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04950887887843632</v>
+        <v>0.05190775240736126</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2721330798.828283</v>
+        <v>3572531036.706141</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1578422927175235</v>
+        <v>0.1875270559193678</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03680030757236603</v>
+        <v>0.04435118605395941</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2664002613.924372</v>
+        <v>2563073391.761546</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1995043547994988</v>
+        <v>0.1401181114777124</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03370561170523335</v>
+        <v>0.05231902536653969</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4429864499.87211</v>
+        <v>4872015792.34473</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08974189336828525</v>
+        <v>0.0796780268251109</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02478686354448872</v>
+        <v>0.02196175583955553</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2964791715.346826</v>
+        <v>3036797503.079213</v>
       </c>
       <c r="F14" t="n">
-        <v>0.122589845307343</v>
+        <v>0.1270000699885188</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03114875551226256</v>
+        <v>0.03107335337783153</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1592410572.016686</v>
+        <v>1482955013.326506</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09676429536773958</v>
+        <v>0.08469561286926792</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04936222477858428</v>
+        <v>0.04748272847280987</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2754819081.692589</v>
+        <v>2266556122.401832</v>
       </c>
       <c r="F16" t="n">
-        <v>0.100913945258277</v>
+        <v>0.08872319368376497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03768237360218814</v>
+        <v>0.0493945583999358</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3987642292.498981</v>
+        <v>3363520442.25326</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1698742634061758</v>
+        <v>0.1318632975732262</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03952243635545712</v>
+        <v>0.04760125487747703</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2487856013.57698</v>
+        <v>2896982410.79141</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1616495121260892</v>
+        <v>0.132681125170194</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03224939479001072</v>
+        <v>0.02565943299950822</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>893896829.2580385</v>
+        <v>1159853851.094101</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1506075135585246</v>
+        <v>0.1239025824794093</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01991032896848639</v>
+        <v>0.02182076087503244</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2168400242.158938</v>
+        <v>2115061658.530882</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1192552791907192</v>
+        <v>0.1602884837487819</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02071934202030098</v>
+        <v>0.02363462819009502</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1774651960.128491</v>
+        <v>2725839063.53418</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06461245398164205</v>
+        <v>0.08522890285814079</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03433191067408416</v>
+        <v>0.0359460165640798</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3939684125.126957</v>
+        <v>3274086761.724607</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1267334292851253</v>
+        <v>0.106610450555346</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0544643611981484</v>
+        <v>0.05371109550418136</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1102150472.994527</v>
+        <v>1385949420.706512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1144938900689035</v>
+        <v>0.1190683271944051</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04826728134572442</v>
+        <v>0.04449650577440857</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4007101995.579096</v>
+        <v>3782010929.43825</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1413478878421661</v>
+        <v>0.1113060613072147</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02717899197268008</v>
+        <v>0.02372504838134949</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1123289514.328943</v>
+        <v>981354821.3564621</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1027996963486172</v>
+        <v>0.1203959458734042</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01871138462947908</v>
+        <v>0.03084991243705823</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1367384882.972377</v>
+        <v>983723519.8374261</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08197228588103034</v>
+        <v>0.08548538468864204</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02498034032104136</v>
+        <v>0.02377139683376004</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3639128027.249196</v>
+        <v>3430358745.928273</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09534123915302455</v>
+        <v>0.1232198663284897</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02381781706437939</v>
+        <v>0.01888606344218033</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3132237040.984917</v>
+        <v>3757542170.732627</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1061565211012313</v>
+        <v>0.1475094976517893</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04467695785153569</v>
+        <v>0.03050876584770605</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3633413204.831813</v>
+        <v>4475740134.853451</v>
       </c>
       <c r="F29" t="n">
-        <v>0.109648780499474</v>
+        <v>0.1491530234241456</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0464182167793441</v>
+        <v>0.02847436699497651</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1587194246.6376</v>
+        <v>1570302432.230455</v>
       </c>
       <c r="F30" t="n">
-        <v>0.126338597177146</v>
+        <v>0.1291565834702087</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03844032005679752</v>
+        <v>0.03949681065421165</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1147080842.078739</v>
+        <v>1059854914.62625</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08427994768085775</v>
+        <v>0.07451578167745444</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05253038818926758</v>
+        <v>0.05008163891512835</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1165805392.980101</v>
+        <v>1183507428.146316</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1073843387520587</v>
+        <v>0.0961123887268862</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02717609735632051</v>
+        <v>0.02473997104528804</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2247136615.908885</v>
+        <v>2332149932.935471</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1512506478811018</v>
+        <v>0.1791142823294431</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04933776123321101</v>
+        <v>0.05531471608149433</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1102422194.656471</v>
+        <v>1483582672.049554</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09523921495072994</v>
+        <v>0.1061827473169964</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02276053196164109</v>
+        <v>0.02758866050912053</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1361382829.06266</v>
+        <v>1321715522.582914</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08479725735014058</v>
+        <v>0.1176848822081672</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03277361313444228</v>
+        <v>0.04420050494129424</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2457496363.295301</v>
+        <v>2183660646.513364</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1288903387995022</v>
+        <v>0.1267537572897214</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02772878055842373</v>
+        <v>0.02001070052373023</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2042213869.660105</v>
+        <v>2196907958.77829</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07915362987204105</v>
+        <v>0.0839841559104295</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03929923818185444</v>
+        <v>0.03780487097108144</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2013211747.632489</v>
+        <v>1548270432.140703</v>
       </c>
       <c r="F38" t="n">
-        <v>0.102573772512734</v>
+        <v>0.1106524189212416</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03993504293532436</v>
+        <v>0.02513775632708741</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1618641755.496708</v>
+        <v>1682209079.664881</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1554917847987961</v>
+        <v>0.1302083842230281</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0260221983988877</v>
+        <v>0.03207011993963833</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1389550580.301023</v>
+        <v>1243241039.943834</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09860431667375477</v>
+        <v>0.1213354017089596</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05741490080895099</v>
+        <v>0.05243883090331525</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2713801783.50734</v>
+        <v>2794894582.599232</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1439839044497073</v>
+        <v>0.1581993669827232</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04043832539836749</v>
+        <v>0.04645342445950023</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2724878430.54426</v>
+        <v>2715032075.732635</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09928725531831563</v>
+        <v>0.1186918153178707</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03643968994993162</v>
+        <v>0.04043191794955501</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2115538537.163049</v>
+        <v>1996830405.017721</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1251384659012021</v>
+        <v>0.1374347111411441</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01957616585408772</v>
+        <v>0.02341248813868022</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1739452912.020628</v>
+        <v>2037206313.554409</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09909263053934635</v>
+        <v>0.07280783565489334</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02304389318790886</v>
+        <v>0.02600901451086392</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2015839313.995542</v>
+        <v>2085861637.529995</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1528977694492153</v>
+        <v>0.1252474260351352</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04102920506251613</v>
+        <v>0.05157161844159239</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4040074945.06973</v>
+        <v>5076296018.942694</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1083710860033063</v>
+        <v>0.1400382928180311</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05523910765795277</v>
+        <v>0.05314395310852198</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5198395175.848969</v>
+        <v>3305316892.803184</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1709197603936958</v>
+        <v>0.1282183288122735</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05345345454064106</v>
+        <v>0.04589786188882209</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3737418217.947621</v>
+        <v>3176346757.677992</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0884607501651157</v>
+        <v>0.08186973231958314</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02395517185580466</v>
+        <v>0.03158520614269966</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1815090610.368977</v>
+        <v>1332782512.801862</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1721205095759406</v>
+        <v>0.1919362904810808</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03373796783248634</v>
+        <v>0.04188855278903619</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3346389107.787365</v>
+        <v>4049829031.772359</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1767634260384324</v>
+        <v>0.1309047916525294</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04054838672527718</v>
+        <v>0.04581081238366173</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1045727381.256569</v>
+        <v>1542058458.234006</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1416942543889145</v>
+        <v>0.1356572056714348</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04304767905152795</v>
+        <v>0.05427942877931515</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4765213231.475875</v>
+        <v>4798618396.448041</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1380480111185574</v>
+        <v>0.09009064300928793</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04748485873649859</v>
+        <v>0.06134993055555763</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3021901641.556875</v>
+        <v>3191379369.927137</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1993808240688187</v>
+        <v>0.1838093586513751</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0239565355684268</v>
+        <v>0.02198067197634223</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4806579351.357098</v>
+        <v>3446040200.285559</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1562741332156682</v>
+        <v>0.108955375615959</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03507653507468379</v>
+        <v>0.04183892036468544</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3864629573.111434</v>
+        <v>3977038688.933152</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2098363759270667</v>
+        <v>0.1718989556741849</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02888549854906761</v>
+        <v>0.0229006985405452</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1425876182.463578</v>
+        <v>1728810628.096364</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09978859184870845</v>
+        <v>0.1594629288364806</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03982437395986805</v>
+        <v>0.05680703680307263</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3918391432.688424</v>
+        <v>4371209451.952756</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1168821082249483</v>
+        <v>0.17694676497307</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0215034807600755</v>
+        <v>0.01758271559993348</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1220185640.958233</v>
+        <v>1296596604.330979</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1734410516244982</v>
+        <v>0.1833026477161151</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03549968234421247</v>
+        <v>0.03729317969309079</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5189544411.445959</v>
+        <v>4661479827.759494</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1199973843695411</v>
+        <v>0.1162781192758084</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04752402250909193</v>
+        <v>0.03530989363636816</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3181806257.552166</v>
+        <v>2863232057.812123</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1813876568897662</v>
+        <v>0.1549786755321066</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03009016951190141</v>
+        <v>0.02275858969503819</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2480922649.94263</v>
+        <v>2302761024.622934</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1709608995060662</v>
+        <v>0.1622523118333669</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02954909576910465</v>
+        <v>0.02106309226683407</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1810431436.997662</v>
+        <v>1829486178.362272</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1804216932142529</v>
+        <v>0.1480582263673833</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03188509616785228</v>
+        <v>0.04632984928005576</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4233776796.743373</v>
+        <v>4112588156.251386</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1021733678865557</v>
+        <v>0.09578040579639961</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02931763114184349</v>
+        <v>0.03412271297168126</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4494235587.832476</v>
+        <v>4300447090.639116</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1203805065370381</v>
+        <v>0.1779020962680576</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02757727925179973</v>
+        <v>0.02388038596625083</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5538138381.974731</v>
+        <v>5064278246.140173</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1434539128712581</v>
+        <v>0.1283570973950745</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02587314211686026</v>
+        <v>0.0198638540818531</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5728204109.245714</v>
+        <v>5727170785.300021</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1579038594364642</v>
+        <v>0.1262191855310842</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04357269656827747</v>
+        <v>0.03719339245777408</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3223888828.195881</v>
+        <v>3160193195.265316</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06375452618870205</v>
+        <v>0.09620281003785686</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04762801686037357</v>
+        <v>0.03811393682962253</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5715357951.79343</v>
+        <v>4409166215.816855</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1006082700929591</v>
+        <v>0.14492974450725</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04758169134231888</v>
+        <v>0.04339709438046974</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2359217534.20047</v>
+        <v>1926750082.88342</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1686278179468215</v>
+        <v>0.1723457606744239</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04554586278273376</v>
+        <v>0.04996855931453962</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3256595790.168647</v>
+        <v>2957638302.968343</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07151622173542538</v>
+        <v>0.08226031579621798</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04981430898764379</v>
+        <v>0.03735250200167305</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5593419509.915814</v>
+        <v>4249944583.212217</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1179149107283299</v>
+        <v>0.1325167469704031</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02496283622472321</v>
+        <v>0.02613338611696738</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2077503549.359878</v>
+        <v>2116295000.228926</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09600145906283891</v>
+        <v>0.09574879019032247</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04329033829262694</v>
+        <v>0.03243358908781785</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2527901401.114336</v>
+        <v>2868727178.068688</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09218868333474675</v>
+        <v>0.1006910930332715</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04111213434889177</v>
+        <v>0.03702892851231693</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2811154817.068237</v>
+        <v>3412840133.563873</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1496150864963041</v>
+        <v>0.1216606061904233</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03438929655283738</v>
+        <v>0.02328150651303585</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1676378657.094753</v>
+        <v>2265705350.390241</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1087408393990953</v>
+        <v>0.126778369461652</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03277113154694872</v>
+        <v>0.02475600267579947</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4101246053.685956</v>
+        <v>3281748450.686115</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07678964448830145</v>
+        <v>0.08751536830488219</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02813794944474817</v>
+        <v>0.02981277185108702</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1832426373.193835</v>
+        <v>1531259338.986854</v>
       </c>
       <c r="F77" t="n">
-        <v>0.115880906020048</v>
+        <v>0.134856878294252</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0266851538506556</v>
+        <v>0.0289362081943328</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4540469043.763455</v>
+        <v>3256949320.310474</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08440589362559299</v>
+        <v>0.1312307895040013</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04276488089221597</v>
+        <v>0.0471440734281242</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1501152551.057892</v>
+        <v>1448676932.683774</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1502035627044619</v>
+        <v>0.164390189897352</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02459676395641954</v>
+        <v>0.03906392264011788</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3885449226.312021</v>
+        <v>3596380937.515079</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1064955653586276</v>
+        <v>0.1084019065918214</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02425681280886824</v>
+        <v>0.02935444420579112</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4937265025.581868</v>
+        <v>5145007575.139702</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1120814232349246</v>
+        <v>0.1209004381197712</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0262037903978659</v>
+        <v>0.02674910279187054</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3777277337.94436</v>
+        <v>4074345713.318799</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1455825947808324</v>
+        <v>0.2137556818058546</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02291464163058917</v>
+        <v>0.0284572032475707</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2120321050.152074</v>
+        <v>1744869805.502399</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1554061748579352</v>
+        <v>0.1292214549943539</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0380148459218144</v>
+        <v>0.03417102902906239</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1685003130.771785</v>
+        <v>2452479741.537544</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1016196848226471</v>
+        <v>0.08499157958006638</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03270848328289151</v>
+        <v>0.04357644550660932</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3103715573.329159</v>
+        <v>3224677546.838905</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1571761160500525</v>
+        <v>0.1665727830411517</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05358677370095467</v>
+        <v>0.050743840976588</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2043432902.125905</v>
+        <v>2147890293.416777</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1068667144078664</v>
+        <v>0.1522021940150328</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02050065622247628</v>
+        <v>0.02581808147911725</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1037996519.374882</v>
+        <v>1479264008.77512</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1588277934895629</v>
+        <v>0.129475728955783</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03172221990744079</v>
+        <v>0.03722986251768073</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2833196030.524634</v>
+        <v>3566743630.508297</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1573530402211401</v>
+        <v>0.1500466119938046</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02997963522617745</v>
+        <v>0.03504085937829342</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2723172659.663193</v>
+        <v>2603713851.320732</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1558847709507391</v>
+        <v>0.1463569084465582</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03590707885535672</v>
+        <v>0.02765568579542852</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1692994200.799996</v>
+        <v>1719028893.811833</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1343769857663457</v>
+        <v>0.1078732115659998</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05286420080088703</v>
+        <v>0.04563895807863656</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1867132802.141397</v>
+        <v>1656840612.787047</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1799312307125902</v>
+        <v>0.1270434428911971</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04407795651195485</v>
+        <v>0.04176890990935738</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1986138453.120588</v>
+        <v>2302674012.063643</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08466998226016134</v>
+        <v>0.07479057465509745</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02973170777691838</v>
+        <v>0.03899124868651303</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4131895036.290233</v>
+        <v>4623888411.763801</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1394211139808172</v>
+        <v>0.112679363083039</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0468242272115571</v>
+        <v>0.03492763739502397</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2378010063.397644</v>
+        <v>1890182556.988071</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1293987442091627</v>
+        <v>0.1382629049613041</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04241251011456601</v>
+        <v>0.03745527353754554</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2117664423.147365</v>
+        <v>2959836480.888187</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09927790711666427</v>
+        <v>0.0900332046388429</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03789206739065621</v>
+        <v>0.04395045986853664</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2388376551.006112</v>
+        <v>1547096764.381725</v>
       </c>
       <c r="F96" t="n">
-        <v>0.104564229119657</v>
+        <v>0.1288900927007174</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03389599155790628</v>
+        <v>0.02894819405460893</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4283539462.30582</v>
+        <v>4248571380.069128</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1719873496151827</v>
+        <v>0.1557857447842242</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02503901967233844</v>
+        <v>0.02884658552869526</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2888063071.767549</v>
+        <v>3739005351.760186</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07877108823689462</v>
+        <v>0.1105354034216511</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03142077857724995</v>
+        <v>0.03008929822803545</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3275745945.832803</v>
+        <v>3318154089.201782</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0946756933057618</v>
+        <v>0.1221254348465817</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02926405872951331</v>
+        <v>0.02958790592052108</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4114263053.712684</v>
+        <v>4269209229.969824</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1313571598802523</v>
+        <v>0.1119134741350723</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0214907602155252</v>
+        <v>0.02663297305321884</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3489164093.501096</v>
+        <v>2906901920.384215</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1378774327404037</v>
+        <v>0.1646363152917422</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05176462760000217</v>
+        <v>0.04096323618403382</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_375.xlsx
+++ b/output/fit_clients/fit_round_375.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1628749016.637267</v>
+        <v>2432884234.866287</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1132234628220216</v>
+        <v>0.113412862244647</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03492336397533379</v>
+        <v>0.03019168444137851</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2259138295.370795</v>
+        <v>2454824849.385426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1683116892140823</v>
+        <v>0.1396790238116129</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03152278142332091</v>
+        <v>0.04317970660529885</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3389740311.115136</v>
+        <v>4098823023.930052</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1246387715767773</v>
+        <v>0.1168442813062647</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02687122608340905</v>
+        <v>0.02647278056164252</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>192</v>
+      </c>
+      <c r="J4" t="n">
+        <v>375</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3492115070.642205</v>
+        <v>2806433995.736371</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08418768703871247</v>
+        <v>0.0930693108682613</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0325036307585649</v>
+        <v>0.03748016713145942</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>150</v>
+      </c>
+      <c r="J5" t="n">
+        <v>372</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2204715206.804247</v>
+        <v>1860390130.815053</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1319857238288429</v>
+        <v>0.09366470212872975</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05382775052570753</v>
+        <v>0.03538507892685187</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1931589947.390657</v>
+        <v>2292096266.974358</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08511773344389101</v>
+        <v>0.09690865219860181</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04170490325980181</v>
+        <v>0.03206810475468446</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3618236355.089783</v>
+        <v>2500674798.965302</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1625640336626347</v>
+        <v>0.1488312939250037</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03111805161516914</v>
+        <v>0.02601049437156678</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>371</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2018675943.34195</v>
+        <v>1615444539.94776</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1603370755175694</v>
+        <v>0.12817122915621</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02340255393790182</v>
+        <v>0.03216473970513525</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5170893309.110429</v>
+        <v>5088009530.046567</v>
       </c>
       <c r="F10" t="n">
-        <v>0.180004176867406</v>
+        <v>0.1533957138554668</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05190775240736126</v>
+        <v>0.04677877192908131</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>309</v>
+      </c>
+      <c r="J10" t="n">
+        <v>375</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3572531036.706141</v>
+        <v>4036908883.44626</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1875270559193678</v>
+        <v>0.1643815434770546</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04435118605395941</v>
+        <v>0.03783610422185222</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>156</v>
+      </c>
+      <c r="J11" t="n">
+        <v>375</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +851,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2563073391.761546</v>
+        <v>2481364785.320216</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1401181114777124</v>
+        <v>0.1207055412184509</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05231902536653969</v>
+        <v>0.03938611631395222</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +880,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4872015792.34473</v>
+        <v>3706363883.160366</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0796780268251109</v>
+        <v>0.0972352407590894</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02196175583955553</v>
+        <v>0.02727626163467581</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>195</v>
+      </c>
+      <c r="J13" t="n">
+        <v>374</v>
+      </c>
+      <c r="K13" t="n">
+        <v>52.46050412699829</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3036797503.079213</v>
+        <v>2529988135.909678</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1270000699885188</v>
+        <v>0.1176403157810932</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03107335337783153</v>
+        <v>0.03635800701553939</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>373</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +958,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1482955013.326506</v>
+        <v>1269297540.60372</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08469561286926792</v>
+        <v>0.06708153732284511</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04748272847280987</v>
+        <v>0.03263393910527439</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2266556122.401832</v>
+        <v>2037615096.294032</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08872319368376497</v>
+        <v>0.07728696059862281</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0493945583999358</v>
+        <v>0.03382222591553311</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3363520442.25326</v>
+        <v>4285804896.69847</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1318632975732262</v>
+        <v>0.1589349768902844</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04760125487747703</v>
+        <v>0.04465048513042752</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>177</v>
+      </c>
+      <c r="J17" t="n">
+        <v>375</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1057,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2896982410.79141</v>
+        <v>2941044290.214463</v>
       </c>
       <c r="F18" t="n">
-        <v>0.132681125170194</v>
+        <v>0.184443810594253</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02565943299950822</v>
+        <v>0.02611876240055213</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>92</v>
+      </c>
+      <c r="J18" t="n">
+        <v>372</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1159853851.094101</v>
+        <v>930236927.003602</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1239025824794093</v>
+        <v>0.1460207415685633</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02182076087503244</v>
+        <v>0.0204522864195567</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2115061658.530882</v>
+        <v>1829350498.470186</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1602884837487819</v>
+        <v>0.1276342421614323</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02363462819009502</v>
+        <v>0.02962838332812988</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2725839063.53418</v>
+        <v>1986624226.008235</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08522890285814079</v>
+        <v>0.08938055820030748</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0359460165640798</v>
+        <v>0.04493948858253142</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1203,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3274086761.724607</v>
+        <v>3234786505.893165</v>
       </c>
       <c r="F22" t="n">
-        <v>0.106610450555346</v>
+        <v>0.1023506907732311</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05371109550418136</v>
+        <v>0.05729168452491997</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>105</v>
+      </c>
+      <c r="J22" t="n">
+        <v>370</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1238,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1385949420.706512</v>
+        <v>1119071245.589694</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1190683271944051</v>
+        <v>0.1382627423319231</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04449650577440857</v>
+        <v>0.03730245035044848</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1273,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3782010929.43825</v>
+        <v>3289136891.331903</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1113060613072147</v>
+        <v>0.1339716696248955</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02372504838134949</v>
+        <v>0.03744299528793048</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>115</v>
+      </c>
+      <c r="J24" t="n">
+        <v>371</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1308,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>981354821.3564621</v>
+        <v>1325799498.377786</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1203959458734042</v>
+        <v>0.0914073023880359</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03084991243705823</v>
+        <v>0.02635785030013369</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1337,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>983723519.8374261</v>
+        <v>1063335730.690265</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08548538468864204</v>
+        <v>0.09722831669952993</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02377139683376004</v>
+        <v>0.03228195143471761</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1372,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3430358745.928273</v>
+        <v>3605010052.07553</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1232198663284897</v>
+        <v>0.1421847158933243</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01888606344218033</v>
+        <v>0.02199688314375946</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>156</v>
+      </c>
+      <c r="J27" t="n">
+        <v>371</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1407,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3757542170.732627</v>
+        <v>2566651198.634026</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1475094976517893</v>
+        <v>0.1424033138899094</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03050876584770605</v>
+        <v>0.04381660526844353</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>87</v>
+      </c>
+      <c r="J28" t="n">
+        <v>374</v>
+      </c>
+      <c r="K28" t="n">
+        <v>32.4155179647464</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1450,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4475740134.853451</v>
+        <v>4814577234.622541</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1491530234241456</v>
+        <v>0.1384675784027798</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02847436699497651</v>
+        <v>0.03599628755594746</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>326</v>
+      </c>
+      <c r="J29" t="n">
+        <v>374</v>
+      </c>
+      <c r="K29" t="n">
+        <v>54.19313167709259</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1570302432.230455</v>
+        <v>2008294903.896139</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1291565834702087</v>
+        <v>0.1258915401954749</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03949681065421165</v>
+        <v>0.03158520755026547</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1059854914.62625</v>
+        <v>1046451672.244934</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07451578167745444</v>
+        <v>0.07114362478755838</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05008163891512835</v>
+        <v>0.03856446159891148</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1183507428.146316</v>
+        <v>1531458345.873369</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0961123887268862</v>
+        <v>0.07537532209559376</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02473997104528804</v>
+        <v>0.02716786587219062</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2332149932.935471</v>
+        <v>2233501854.221142</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1791142823294431</v>
+        <v>0.195779365794394</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05531471608149433</v>
+        <v>0.05623450963026488</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1483582672.049554</v>
+        <v>1426671034.431635</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1061827473169964</v>
+        <v>0.07360837358958355</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02758866050912053</v>
+        <v>0.02283948647287811</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1321715522.582914</v>
+        <v>1213074012.100753</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1176848822081672</v>
+        <v>0.1078737089094206</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04420050494129424</v>
+        <v>0.0428223234218476</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2183660646.513364</v>
+        <v>2061012675.670392</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1267537572897214</v>
+        <v>0.126205796917869</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02001070052373023</v>
+        <v>0.02275034167992287</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1732,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2196907958.77829</v>
+        <v>2610980875.568162</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0839841559104295</v>
+        <v>0.07612605558314842</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03780487097108144</v>
+        <v>0.03974257769889668</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1548270432.140703</v>
+        <v>1655553437.517193</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1106524189212416</v>
+        <v>0.107597589475582</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02513775632708741</v>
+        <v>0.03866197392894766</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1682209079.664881</v>
+        <v>1980272020.888492</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1302083842230281</v>
+        <v>0.1584534423200641</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03207011993963833</v>
+        <v>0.02318310155569899</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1837,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1243241039.943834</v>
+        <v>1100530810.126919</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1213354017089596</v>
+        <v>0.1491492527811978</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05243883090331525</v>
+        <v>0.04795020893754483</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1872,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2794894582.599232</v>
+        <v>2160336594.396148</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1581993669827232</v>
+        <v>0.156958691822293</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04645342445950023</v>
+        <v>0.03325748466378706</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2715032075.732635</v>
+        <v>4060564582.104677</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1186918153178707</v>
+        <v>0.1057086739180339</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04043191794955501</v>
+        <v>0.04225767790547046</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>165</v>
+      </c>
+      <c r="J42" t="n">
+        <v>375</v>
+      </c>
+      <c r="K42" t="n">
+        <v>65.57023366300292</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1996830405.017721</v>
+        <v>2051221186.80546</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1374347111411441</v>
+        <v>0.1263980916291865</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02341248813868022</v>
+        <v>0.02043003003950859</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2037206313.554409</v>
+        <v>2062127142.946922</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07280783565489334</v>
+        <v>0.1011503767242207</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02600901451086392</v>
+        <v>0.02800176099773588</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2085861637.529995</v>
+        <v>2229457874.91971</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1252474260351352</v>
+        <v>0.1414441318203081</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05157161844159239</v>
+        <v>0.05613888437924953</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5076296018.942694</v>
+        <v>4691096172.870519</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1400382928180311</v>
+        <v>0.1497652597549732</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05314395310852198</v>
+        <v>0.03967275322164047</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>224</v>
+      </c>
+      <c r="J46" t="n">
+        <v>375</v>
+      </c>
+      <c r="K46" t="n">
+        <v>56.92789860090448</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2086,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3305316892.803184</v>
+        <v>4468993780.659616</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1282183288122735</v>
+        <v>0.1513827600972174</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04589786188882209</v>
+        <v>0.05699917933023523</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>167</v>
+      </c>
+      <c r="J47" t="n">
+        <v>375</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3176346757.677992</v>
+        <v>4705179363.499175</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08186973231958314</v>
+        <v>0.06811650091718409</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03158520614269966</v>
+        <v>0.03688159149267434</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>194</v>
+      </c>
+      <c r="J48" t="n">
+        <v>375</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2156,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1332782512.801862</v>
+        <v>1886643702.23419</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1919362904810808</v>
+        <v>0.1756695378123486</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04188855278903619</v>
+        <v>0.02996032796180682</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2185,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4049829031.772359</v>
+        <v>3471826820.791517</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1309047916525294</v>
+        <v>0.1376189048963139</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04581081238366173</v>
+        <v>0.03837280162000271</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>126</v>
+      </c>
+      <c r="J50" t="n">
+        <v>374</v>
+      </c>
+      <c r="K50" t="n">
+        <v>51.04234899593848</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1542058458.234006</v>
+        <v>1152858153.979857</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1356572056714348</v>
+        <v>0.1457773416416259</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05427942877931515</v>
+        <v>0.04871971964194833</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2263,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4798618396.448041</v>
+        <v>4872954179.255894</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09009064300928793</v>
+        <v>0.08964189760498498</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06134993055555763</v>
+        <v>0.05997074465803055</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>220</v>
+      </c>
+      <c r="J52" t="n">
+        <v>375</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3191379369.927137</v>
+        <v>3546390809.974766</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1838093586513751</v>
+        <v>0.1626278460723627</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02198067197634223</v>
+        <v>0.03413151639970012</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2333,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3446040200.285559</v>
+        <v>4209965271.336221</v>
       </c>
       <c r="F54" t="n">
-        <v>0.108955375615959</v>
+        <v>0.130416988477515</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04183892036468544</v>
+        <v>0.04896986538557144</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>199</v>
+      </c>
+      <c r="J54" t="n">
+        <v>375</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2362,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3977038688.933152</v>
+        <v>3478263606.766</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1718989556741849</v>
+        <v>0.1807269713580949</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0229006985405452</v>
+        <v>0.0290681936070357</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>180</v>
+      </c>
+      <c r="J55" t="n">
+        <v>374</v>
+      </c>
+      <c r="K55" t="n">
+        <v>46.12282893715119</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2399,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1728810628.096364</v>
+        <v>1848253054.407101</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1594629288364806</v>
+        <v>0.111022665570237</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05680703680307263</v>
+        <v>0.03583474978442621</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2434,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4371209451.952756</v>
+        <v>3702510421.335105</v>
       </c>
       <c r="F57" t="n">
-        <v>0.17694676497307</v>
+        <v>0.113614022461014</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01758271559993348</v>
+        <v>0.02307843494630671</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>157</v>
+      </c>
+      <c r="J57" t="n">
+        <v>375</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2469,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1296596604.330979</v>
+        <v>1424967345.168907</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1833026477161151</v>
+        <v>0.1639800510375465</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03729317969309079</v>
+        <v>0.02890033601832075</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2504,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4661479827.759494</v>
+        <v>5312651776.33051</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1162781192758084</v>
+        <v>0.1205098414417443</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03530989363636816</v>
+        <v>0.031723031691256</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>182</v>
+      </c>
+      <c r="J59" t="n">
+        <v>375</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2545,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2863232057.812123</v>
+        <v>3659991389.362816</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1549786755321066</v>
+        <v>0.1771728314120056</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02275858969503819</v>
+        <v>0.03097287226005297</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>67</v>
+      </c>
+      <c r="J60" t="n">
+        <v>375</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2574,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2302761024.622934</v>
+        <v>3237158650.009139</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1622523118333669</v>
+        <v>0.1307963221286406</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02106309226683407</v>
+        <v>0.02532954607929088</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2615,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1829486178.362272</v>
+        <v>1535735506.57712</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1480582263673833</v>
+        <v>0.1305893857190543</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04632984928005576</v>
+        <v>0.04276906347669814</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2644,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4112588156.251386</v>
+        <v>5224032870.064485</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09578040579639961</v>
+        <v>0.0648546417700516</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03412271297168126</v>
+        <v>0.03823780165778577</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>184</v>
+      </c>
+      <c r="J63" t="n">
+        <v>375</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2679,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4300447090.639116</v>
+        <v>4201016846.953113</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1779020962680576</v>
+        <v>0.1663922424872415</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02388038596625083</v>
+        <v>0.03102884959705523</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>186</v>
+      </c>
+      <c r="J64" t="n">
+        <v>375</v>
+      </c>
+      <c r="K64" t="n">
+        <v>55.03815236366508</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2716,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5064278246.140173</v>
+        <v>5654783441.460251</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1283570973950745</v>
+        <v>0.1650707656315831</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0198638540818531</v>
+        <v>0.03018881072491214</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>283</v>
+      </c>
+      <c r="J65" t="n">
+        <v>374</v>
+      </c>
+      <c r="K65" t="n">
+        <v>54.3087288393061</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2753,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5727170785.300021</v>
+        <v>4937226169.437052</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1262191855310842</v>
+        <v>0.1293628405987812</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03719339245777408</v>
+        <v>0.03423328529974075</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>185</v>
+      </c>
+      <c r="J66" t="n">
+        <v>375</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2788,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3160193195.265316</v>
+        <v>2458735803.49175</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09620281003785686</v>
+        <v>0.07396864132517922</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03811393682962253</v>
+        <v>0.03863333014675903</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2823,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4409166215.816855</v>
+        <v>5751216088.575972</v>
       </c>
       <c r="F68" t="n">
-        <v>0.14492974450725</v>
+        <v>0.1591781348363449</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04339709438046974</v>
+        <v>0.04286402670663689</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>203</v>
+      </c>
+      <c r="J68" t="n">
+        <v>375</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2864,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1926750082.88342</v>
+        <v>2230112319.226036</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1723457606744239</v>
+        <v>0.1417310807460688</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04996855931453962</v>
+        <v>0.05252960044526415</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2893,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2957638302.968343</v>
+        <v>2907849327.411306</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08226031579621798</v>
+        <v>0.08403784796059362</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03735250200167305</v>
+        <v>0.03886489489376072</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2928,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4249944583.212217</v>
+        <v>4901584804.143427</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1325167469704031</v>
+        <v>0.1537813882790214</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02613338611696738</v>
+        <v>0.02301905631121112</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>269</v>
+      </c>
+      <c r="J71" t="n">
+        <v>374</v>
+      </c>
+      <c r="K71" t="n">
+        <v>54.65457825535127</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2965,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2116295000.228926</v>
+        <v>1501150794.981956</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09574879019032247</v>
+        <v>0.08497520704464935</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03243358908781785</v>
+        <v>0.03636662795223684</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3000,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2868727178.068688</v>
+        <v>2435619507.750183</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1006910930332715</v>
+        <v>0.1047285490956385</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03702892851231693</v>
+        <v>0.04682790600679296</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3035,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3412840133.563873</v>
+        <v>2810964068.540502</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1216606061904233</v>
+        <v>0.1385360764210777</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02328150651303585</v>
+        <v>0.02417935233763845</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>107</v>
+      </c>
+      <c r="J74" t="n">
+        <v>373</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3070,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2265705350.390241</v>
+        <v>1961938999.513218</v>
       </c>
       <c r="F75" t="n">
-        <v>0.126778369461652</v>
+        <v>0.146552045036787</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02475600267579947</v>
+        <v>0.03310730693352841</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3105,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3281748450.686115</v>
+        <v>4651078277.493713</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08751536830488219</v>
+        <v>0.1240054406170198</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02981277185108702</v>
+        <v>0.02548121708745295</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>177</v>
+      </c>
+      <c r="J76" t="n">
+        <v>375</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3146,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1531259338.986854</v>
+        <v>2058317599.221315</v>
       </c>
       <c r="F77" t="n">
-        <v>0.134856878294252</v>
+        <v>0.1362227823471047</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0289362081943328</v>
+        <v>0.02268187759655046</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3175,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3256949320.310474</v>
+        <v>3196361881.881892</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1312307895040013</v>
+        <v>0.1090375816556076</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0471440734281242</v>
+        <v>0.04084123141766807</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>188</v>
+      </c>
+      <c r="J78" t="n">
+        <v>374</v>
+      </c>
+      <c r="K78" t="n">
+        <v>37.38066880110608</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3212,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1448676932.683774</v>
+        <v>1353892850.452781</v>
       </c>
       <c r="F79" t="n">
-        <v>0.164390189897352</v>
+        <v>0.167858027262388</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03906392264011788</v>
+        <v>0.04014197084055913</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3253,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3596380937.515079</v>
+        <v>4685033675.246035</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1084019065918214</v>
+        <v>0.09299471516937732</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02935444420579112</v>
+        <v>0.02386293571261512</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>183</v>
+      </c>
+      <c r="J80" t="n">
+        <v>374</v>
+      </c>
+      <c r="K80" t="n">
+        <v>43.60951750067813</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3284,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5145007575.139702</v>
+        <v>4028745179.336282</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1209004381197712</v>
+        <v>0.08934833898922892</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02674910279187054</v>
+        <v>0.02521691454682309</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>174</v>
+      </c>
+      <c r="J81" t="n">
+        <v>374</v>
+      </c>
+      <c r="K81" t="n">
+        <v>52.67847096797236</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3321,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4074345713.318799</v>
+        <v>4204355540.776283</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2137556818058546</v>
+        <v>0.1344323460744602</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0284572032475707</v>
+        <v>0.01840452841289617</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>261</v>
+      </c>
+      <c r="J82" t="n">
+        <v>374</v>
+      </c>
+      <c r="K82" t="n">
+        <v>54.00852629569179</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3364,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1744869805.502399</v>
+        <v>2220661714.264505</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1292214549943539</v>
+        <v>0.1472345083298376</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03417102902906239</v>
+        <v>0.03113657948751618</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3393,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2452479741.537544</v>
+        <v>2414367548.003364</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08499157958006638</v>
+        <v>0.09346074731102685</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04357644550660932</v>
+        <v>0.03307549559429027</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3434,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3224677546.838905</v>
+        <v>3228558484.691292</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1665727830411517</v>
+        <v>0.1820223804483862</v>
       </c>
       <c r="G85" t="n">
-        <v>0.050743840976588</v>
+        <v>0.03739036262213929</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3463,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2147890293.416777</v>
+        <v>2002656400.100876</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1522021940150328</v>
+        <v>0.1138620213105421</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02581808147911725</v>
+        <v>0.02003383682324411</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3498,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1479264008.77512</v>
+        <v>1088950964.666529</v>
       </c>
       <c r="F87" t="n">
-        <v>0.129475728955783</v>
+        <v>0.1389896165550301</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03722986251768073</v>
+        <v>0.03774536420734022</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3533,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3566743630.508297</v>
+        <v>2830963624.828289</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1500466119938046</v>
+        <v>0.1262978375946119</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03504085937829342</v>
+        <v>0.02413137432226499</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>48</v>
+      </c>
+      <c r="J88" t="n">
+        <v>374</v>
+      </c>
+      <c r="K88" t="n">
+        <v>41.2865706259031</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3570,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2603713851.320732</v>
+        <v>2253419144.368412</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1463569084465582</v>
+        <v>0.1271850897964056</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02765568579542852</v>
+        <v>0.03607406450224152</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3605,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1719028893.811833</v>
+        <v>1654412253.444648</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1078732115659998</v>
+        <v>0.1199533035237102</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04563895807863656</v>
+        <v>0.0494251517771802</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3640,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1656840612.787047</v>
+        <v>1331357836.355165</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1270434428911971</v>
+        <v>0.1252675713493842</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04176890990935738</v>
+        <v>0.06139396008239039</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3675,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2302674012.063643</v>
+        <v>2906649586.949776</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07479057465509745</v>
+        <v>0.08151979308939937</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03899124868651303</v>
+        <v>0.0446216759556303</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3710,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4623888411.763801</v>
+        <v>4060426209.729019</v>
       </c>
       <c r="F93" t="n">
-        <v>0.112679363083039</v>
+        <v>0.09902622596296408</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03492763739502397</v>
+        <v>0.05401657906555923</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>176</v>
+      </c>
+      <c r="J93" t="n">
+        <v>375</v>
+      </c>
+      <c r="K93" t="n">
+        <v>55.96026230202752</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3747,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1890182556.988071</v>
+        <v>1813566599.186374</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1382629049613041</v>
+        <v>0.1606376168442716</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03745527353754554</v>
+        <v>0.03236995764215667</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3788,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2959836480.888187</v>
+        <v>2899459051.559214</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0900332046388429</v>
+        <v>0.09406639447673358</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04395045986853664</v>
+        <v>0.03718600473111415</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3823,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1547096764.381725</v>
+        <v>1687529636.226645</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1288900927007174</v>
+        <v>0.1239290177206611</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02894819405460893</v>
+        <v>0.03532170477768723</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3852,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4248571380.069128</v>
+        <v>3633584517.721247</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1557857447842242</v>
+        <v>0.1239889499821649</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02884658552869526</v>
+        <v>0.0249349322325595</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>194</v>
+      </c>
+      <c r="J97" t="n">
+        <v>374</v>
+      </c>
+      <c r="K97" t="n">
+        <v>48.19939477068201</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3889,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3739005351.760186</v>
+        <v>3883145628.927146</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1105354034216511</v>
+        <v>0.1189571864127468</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03008929822803545</v>
+        <v>0.02390509891637642</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>96</v>
+      </c>
+      <c r="J98" t="n">
+        <v>375</v>
+      </c>
+      <c r="K98" t="n">
+        <v>60.69282632509775</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3318154089.201782</v>
+        <v>2646503945.872147</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1221254348465817</v>
+        <v>0.1222544093290386</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02958790592052108</v>
+        <v>0.02387738687968423</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4269209229.969824</v>
+        <v>3913831548.050995</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1119134741350723</v>
+        <v>0.1314833350656338</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02663297305321884</v>
+        <v>0.02010909816134773</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>172</v>
+      </c>
+      <c r="J100" t="n">
+        <v>374</v>
+      </c>
+      <c r="K100" t="n">
+        <v>54.45943166072541</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2906901920.384215</v>
+        <v>2378940861.29723</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1646363152917422</v>
+        <v>0.1630118690788605</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04096323618403382</v>
+        <v>0.05176868629896904</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="n">
+        <v>33.26154907379905</v>
       </c>
     </row>
   </sheetData>
